--- a/web/pns/daily_data_triangulation_template_v100.xlsx
+++ b/web/pns/daily_data_triangulation_template_v100.xlsx
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1928" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="786">
   <si>
     <t>F</t>
   </si>
@@ -3002,6 +3002,9 @@
   </si>
   <si>
     <t>Designation</t>
+  </si>
+  <si>
+    <t>Cause of Varience Confirmed to be Patients coming express for Pharmacy Refill</t>
   </si>
 </sst>
 </file>
@@ -4090,6 +4093,23 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="14" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4125,6 +4145,105 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4204,151 +4323,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="39">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -4758,6 +4740,27 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -5421,42 +5424,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="t_data" displayName="t_data" ref="A1:J139" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" tableBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="t_data" displayName="t_data" ref="A1:J139" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
   <autoFilter ref="A1:J139"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="COUNTY" dataDxfId="19">
+    <tableColumn id="1" name="COUNTY" dataDxfId="16">
       <calculatedColumnFormula>sitecounty</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="FACILITY" dataDxfId="18">
+    <tableColumn id="2" name="FACILITY" dataDxfId="15">
       <calculatedColumnFormula>site</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="MFLCODE" dataDxfId="17">
+    <tableColumn id="3" name="MFLCODE" dataDxfId="14">
       <calculatedColumnFormula>mflcode</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="DATE" dataDxfId="16">
+    <tableColumn id="4" name="DATE" dataDxfId="13">
       <calculatedColumnFormula>yyyy&amp;"-"&amp;mm&amp;"-"&amp;dd</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="SDP" dataDxfId="15">
+    <tableColumn id="5" name="SDP" dataDxfId="12">
       <calculatedColumnFormula>sdp</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="TREATMENT" dataDxfId="14"/>
-    <tableColumn id="7" name="INDICATOR" dataDxfId="13"/>
-    <tableColumn id="8" name="GENDER" dataDxfId="12"/>
-    <tableColumn id="9" name="AGE_GROUP" dataDxfId="11"/>
-    <tableColumn id="10" name="TOTAL" dataDxfId="10"/>
+    <tableColumn id="6" name="TREATMENT" dataDxfId="11"/>
+    <tableColumn id="7" name="INDICATOR" dataDxfId="10"/>
+    <tableColumn id="8" name="GENDER" dataDxfId="9"/>
+    <tableColumn id="9" name="AGE_GROUP" dataDxfId="8"/>
+    <tableColumn id="10" name="TOTAL" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="t_SurgeFacilities" displayName="t_SurgeFacilities" ref="A1:D328" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="t_SurgeFacilities" displayName="t_SurgeFacilities" ref="A1:D328" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="A1:D328"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="County " dataDxfId="6"/>
-    <tableColumn id="2" name="Facility_ID" dataDxfId="5"/>
-    <tableColumn id="3" name="Facility" dataDxfId="4"/>
-    <tableColumn id="4" name="MflCode" dataDxfId="3"/>
+    <tableColumn id="1" name="County " dataDxfId="3"/>
+    <tableColumn id="2" name="Facility_ID" dataDxfId="2"/>
+    <tableColumn id="3" name="Facility" dataDxfId="1"/>
+    <tableColumn id="4" name="MflCode" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5768,76 +5771,76 @@
       <selection activeCell="F1" sqref="F1:AU2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.5703125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="11.65"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="24"/>
-    <col min="2" max="2" width="2.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78.5703125" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="84.85546875" style="24" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.59765625" style="24"/>
+    <col min="2" max="2" width="2.73046875" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.59765625" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="84.86328125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="4.3984375" style="24" bestFit="1" customWidth="1"/>
     <col min="7" max="37" width="3" style="24" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="6.5703125" style="24"/>
+    <col min="38" max="16384" width="6.59765625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:56" s="30" customFormat="1" ht="11.65" customHeight="1">
       <c r="A1" s="29"/>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="67" t="s">
         <v>754</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="65" t="s">
         <v>767</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="65" t="s">
         <v>769</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="71" t="s">
         <v>783</v>
       </c>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67"/>
-      <c r="AH1" s="67"/>
-      <c r="AI1" s="67"/>
-      <c r="AJ1" s="67"/>
-      <c r="AK1" s="67"/>
-      <c r="AL1" s="67"/>
-      <c r="AM1" s="67"/>
-      <c r="AN1" s="67"/>
-      <c r="AO1" s="67"/>
-      <c r="AP1" s="67"/>
-      <c r="AQ1" s="67"/>
-      <c r="AR1" s="67"/>
-      <c r="AS1" s="67"/>
-      <c r="AT1" s="67"/>
-      <c r="AU1" s="68"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72"/>
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="72"/>
+      <c r="AH1" s="72"/>
+      <c r="AI1" s="72"/>
+      <c r="AJ1" s="72"/>
+      <c r="AK1" s="72"/>
+      <c r="AL1" s="72"/>
+      <c r="AM1" s="72"/>
+      <c r="AN1" s="72"/>
+      <c r="AO1" s="72"/>
+      <c r="AP1" s="72"/>
+      <c r="AQ1" s="72"/>
+      <c r="AR1" s="72"/>
+      <c r="AS1" s="72"/>
+      <c r="AT1" s="72"/>
+      <c r="AU1" s="73"/>
       <c r="AV1" s="29"/>
       <c r="AW1" s="29"/>
       <c r="AX1" s="29"/>
@@ -5850,52 +5853,52 @@
     </row>
     <row r="2" spans="1:56" s="30" customFormat="1" ht="14.65" customHeight="1" thickBot="1">
       <c r="A2" s="29"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="70"/>
-      <c r="W2" s="70"/>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="70"/>
-      <c r="Z2" s="70"/>
-      <c r="AA2" s="70"/>
-      <c r="AB2" s="70"/>
-      <c r="AC2" s="70"/>
-      <c r="AD2" s="70"/>
-      <c r="AE2" s="70"/>
-      <c r="AF2" s="70"/>
-      <c r="AG2" s="70"/>
-      <c r="AH2" s="70"/>
-      <c r="AI2" s="70"/>
-      <c r="AJ2" s="70"/>
-      <c r="AK2" s="70"/>
-      <c r="AL2" s="70"/>
-      <c r="AM2" s="70"/>
-      <c r="AN2" s="70"/>
-      <c r="AO2" s="70"/>
-      <c r="AP2" s="70"/>
-      <c r="AQ2" s="70"/>
-      <c r="AR2" s="70"/>
-      <c r="AS2" s="70"/>
-      <c r="AT2" s="70"/>
-      <c r="AU2" s="71"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="75"/>
+      <c r="AG2" s="75"/>
+      <c r="AH2" s="75"/>
+      <c r="AI2" s="75"/>
+      <c r="AJ2" s="75"/>
+      <c r="AK2" s="75"/>
+      <c r="AL2" s="75"/>
+      <c r="AM2" s="75"/>
+      <c r="AN2" s="75"/>
+      <c r="AO2" s="75"/>
+      <c r="AP2" s="75"/>
+      <c r="AQ2" s="75"/>
+      <c r="AR2" s="75"/>
+      <c r="AS2" s="75"/>
+      <c r="AT2" s="75"/>
+      <c r="AU2" s="76"/>
       <c r="AV2" s="29"/>
       <c r="AW2" s="29"/>
       <c r="AX2" s="29"/>
@@ -5921,7 +5924,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="4" spans="1:56" ht="228">
+    <row r="4" spans="1:56" ht="209.25">
       <c r="A4" s="29"/>
       <c r="B4" s="45">
         <v>2</v>
@@ -6056,40 +6059,40 @@
   <dimension ref="A1:BJ22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D16" sqref="D16:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.5703125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="11.65"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="24"/>
-    <col min="2" max="2" width="2.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="101.7109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.85546875" style="23" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" style="23" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" style="23" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="6.59765625" style="24"/>
+    <col min="2" max="2" width="2.73046875" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="101.73046875" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.86328125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="6.265625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="4.86328125" style="23" customWidth="1"/>
+    <col min="7" max="7" width="6.265625" style="23" customWidth="1"/>
     <col min="8" max="8" width="5" style="23" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" style="23" customWidth="1"/>
+    <col min="9" max="9" width="7.86328125" style="23" customWidth="1"/>
     <col min="10" max="10" width="10" style="23" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="24" customWidth="1"/>
-    <col min="12" max="12" width="4.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.3984375" style="24" bestFit="1" customWidth="1"/>
     <col min="13" max="43" width="3" style="24" bestFit="1" customWidth="1"/>
-    <col min="44" max="16384" width="6.5703125" style="24"/>
+    <col min="44" max="16384" width="6.59765625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="12.75" thickBot="1">
+    <row r="1" spans="1:62" ht="12" thickBot="1">
       <c r="A1" s="29"/>
     </row>
     <row r="2" spans="1:62" ht="38.25" customHeight="1" thickBot="1">
       <c r="A2" s="29"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="74"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="106"/>
       <c r="L2" s="35" t="s">
         <v>2</v>
       </c>
@@ -6189,16 +6192,16 @@
     </row>
     <row r="3" spans="1:62" s="30" customFormat="1" ht="18.399999999999999" customHeight="1" thickBot="1">
       <c r="A3" s="29"/>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="119" t="s">
         <v>753</v>
       </c>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="89"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="121"/>
       <c r="J3" s="31" t="s">
         <v>177</v>
       </c>
@@ -6257,20 +6260,20 @@
     </row>
     <row r="4" spans="1:62" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="29"/>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="122" t="s">
         <v>759</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="107" t="s">
         <v>755</v>
       </c>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="77"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="109"/>
       <c r="L4" s="35" t="s">
         <v>3</v>
       </c>
@@ -6332,14 +6335,14 @@
     </row>
     <row r="5" spans="1:62" ht="14.65" customHeight="1" thickBot="1">
       <c r="A5" s="29"/>
-      <c r="B5" s="90"/>
+      <c r="B5" s="122"/>
       <c r="C5" s="25"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="80"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="112"/>
       <c r="M5" s="48" t="s">
         <v>760</v>
       </c>
@@ -6348,20 +6351,20 @@
     </row>
     <row r="6" spans="1:62" ht="14.25" customHeight="1">
       <c r="A6" s="29"/>
-      <c r="B6" s="90"/>
+      <c r="B6" s="122"/>
       <c r="C6" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="D6" s="91" t="s">
+      <c r="D6" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="93" t="s">
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="93"/>
-      <c r="I6" s="94"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="126"/>
       <c r="M6" s="48" t="s">
         <v>761</v>
       </c>
@@ -6370,14 +6373,14 @@
     </row>
     <row r="7" spans="1:62" ht="17.25" customHeight="1" thickBot="1">
       <c r="A7" s="29"/>
-      <c r="B7" s="90"/>
+      <c r="B7" s="122"/>
       <c r="C7" s="26"/>
-      <c r="D7" s="95" t="str">
+      <c r="D7" s="127" t="str">
         <f>IF(ISERROR((RIGHT(C7,LEN(C7)- FIND("_",C7)))),"",(RIGHT(C7,LEN(C7)- FIND("_",C7))))</f>
         <v/>
       </c>
-      <c r="E7" s="96"/>
-      <c r="F7" s="97"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="129"/>
       <c r="G7" s="27" t="s">
         <v>2</v>
       </c>
@@ -6395,22 +6398,22 @@
     </row>
     <row r="8" spans="1:62" s="30" customFormat="1" ht="11.65" customHeight="1">
       <c r="A8" s="29"/>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="67" t="s">
         <v>754</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="81" t="s">
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="113" t="s">
         <v>751</v>
       </c>
-      <c r="H8" s="82"/>
-      <c r="I8" s="83"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="115"/>
       <c r="J8" s="28"/>
       <c r="K8" s="24"/>
       <c r="L8" s="29"/>
@@ -6469,18 +6472,20 @@
     </row>
     <row r="9" spans="1:62" s="30" customFormat="1" ht="14.65" customHeight="1" thickBot="1">
       <c r="A9" s="29"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="86"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="118"/>
       <c r="J9" s="28"/>
       <c r="K9" s="24"/>
       <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
+      <c r="M9" s="49" t="s">
+        <v>785</v>
+      </c>
       <c r="N9" s="29"/>
       <c r="O9" s="29"/>
       <c r="P9" s="29"/>
@@ -6536,18 +6541,18 @@
       <c r="B10" s="44">
         <v>1</v>
       </c>
-      <c r="C10" s="117" t="s">
+      <c r="C10" s="60" t="s">
         <v>758</v>
       </c>
-      <c r="D10" s="110"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="100">
+      <c r="D10" s="98"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="80">
         <f>IF(D10&lt;&gt;D11,"Not Concordant, Please indicate the corrective action plan taken",0)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="100"/>
-      <c r="I10" s="101"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="81"/>
       <c r="J10" s="32">
         <v>1</v>
       </c>
@@ -6557,15 +6562,15 @@
       <c r="B11" s="45">
         <v>2</v>
       </c>
-      <c r="C11" s="118" t="s">
+      <c r="C11" s="61" t="s">
         <v>752</v>
       </c>
-      <c r="D11" s="113"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="103"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="83"/>
       <c r="J11" s="32">
         <v>2</v>
       </c>
@@ -6575,15 +6580,15 @@
       <c r="B12" s="45">
         <v>3</v>
       </c>
-      <c r="C12" s="118" t="s">
+      <c r="C12" s="61" t="s">
         <v>779</v>
       </c>
-      <c r="D12" s="113"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="103"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="83"/>
       <c r="J12" s="32"/>
     </row>
     <row r="13" spans="1:62" ht="16.899999999999999" customHeight="1">
@@ -6591,15 +6596,15 @@
       <c r="B13" s="45">
         <v>4</v>
       </c>
-      <c r="C13" s="118" t="s">
+      <c r="C13" s="61" t="s">
         <v>766</v>
       </c>
-      <c r="D13" s="113"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="103"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="83"/>
       <c r="J13" s="32"/>
     </row>
     <row r="14" spans="1:62" ht="16.899999999999999" customHeight="1">
@@ -6607,15 +6612,15 @@
       <c r="B14" s="45">
         <v>5</v>
       </c>
-      <c r="C14" s="118" t="s">
+      <c r="C14" s="61" t="s">
         <v>780</v>
       </c>
-      <c r="D14" s="106"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="108"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="103"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="83"/>
       <c r="J14" s="32"/>
     </row>
     <row r="15" spans="1:62" ht="16.899999999999999" customHeight="1">
@@ -6623,18 +6628,18 @@
       <c r="B15" s="45">
         <v>6</v>
       </c>
-      <c r="C15" s="119" t="s">
+      <c r="C15" s="62" t="s">
         <v>781</v>
       </c>
-      <c r="D15" s="115">
+      <c r="D15" s="92">
         <f>D10-D11</f>
         <v>0</v>
       </c>
-      <c r="E15" s="99"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="103"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="83"/>
       <c r="J15" s="32"/>
     </row>
     <row r="16" spans="1:62" ht="14.65" customHeight="1">
@@ -6642,15 +6647,15 @@
       <c r="B16" s="45">
         <v>7</v>
       </c>
-      <c r="C16" s="119" t="s">
+      <c r="C16" s="62" t="s">
         <v>764</v>
       </c>
-      <c r="D16" s="127"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="128"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="103"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="83"/>
       <c r="J16" s="32"/>
     </row>
     <row r="17" spans="1:62" ht="14.65" customHeight="1">
@@ -6658,15 +6663,15 @@
       <c r="B17" s="42">
         <v>8</v>
       </c>
-      <c r="C17" s="126" t="s">
+      <c r="C17" s="64" t="s">
         <v>756</v>
       </c>
-      <c r="D17" s="129"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="103"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="83"/>
       <c r="J17" s="32"/>
       <c r="BJ17" s="34"/>
     </row>
@@ -6675,34 +6680,24 @@
       <c r="B18" s="46">
         <v>9</v>
       </c>
-      <c r="C18" s="120" t="s">
+      <c r="C18" s="63" t="s">
         <v>784</v>
       </c>
-      <c r="D18" s="124"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="122"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="105"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="85"/>
       <c r="J18" s="32"/>
       <c r="BJ18" s="34"/>
     </row>
-    <row r="22" spans="1:62" ht="15">
+    <row r="22" spans="1:62" ht="14.25">
       <c r="E22" s="38"/>
     </row>
   </sheetData>
   <sheetProtection password="CC71" sheet="1" selectLockedCells="1"/>
   <mergeCells count="21">
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G10:I18"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D17:F17"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="D4:I5"/>
     <mergeCell ref="C8:C9"/>
@@ -6714,6 +6709,16 @@
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="D8:F9"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G10:I18"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D17:F17"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="C17 G10">
@@ -6770,17 +6775,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="22" priority="3">
       <formula>LEN(TRIM(C18))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ18">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="21" priority="2">
       <formula>LEN(TRIM(BJ18))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="20" priority="1">
       <formula>LEN(TRIM(D18))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6801,8 +6806,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7">
       <formula1>$L$4:$X$4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16">
-      <formula1>$M$5:$M$8</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16:F16">
+      <formula1>$M$5:$M$9</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.57999999999999996" header="0.3" footer="0.24"/>
@@ -6823,18 +6828,18 @@
       <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="77.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.265625" customWidth="1"/>
+    <col min="2" max="2" width="18.73046875" customWidth="1"/>
+    <col min="3" max="3" width="12.265625" customWidth="1"/>
+    <col min="4" max="4" width="20.86328125" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="6" max="6" width="15.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="77.1328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.73046875" customWidth="1"/>
+    <col min="9" max="9" width="13.3984375" customWidth="1"/>
+    <col min="10" max="10" width="8.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -12130,14 +12135,14 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" customWidth="1"/>
-    <col min="5" max="5" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.73046875" customWidth="1"/>
+    <col min="5" max="5" width="40.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -13301,12 +13306,12 @@
       <selection activeCell="B330" sqref="B330"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.3984375" customWidth="1"/>
+    <col min="2" max="2" width="40.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -17911,21 +17916,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18163,14 +18168,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F970A073-BA64-4372-95DC-98C3FFA83DDB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45088050-6D1C-4374-A6E1-B9B58326C08D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -18184,6 +18181,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="dac3fa0a-9923-49c3-b4ba-df6390fa58ea"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F970A073-BA64-4372-95DC-98C3FFA83DDB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/web/pns/daily_data_triangulation_template_v100.xlsx
+++ b/web/pns/daily_data_triangulation_template_v100.xlsx
@@ -20,7 +20,7 @@
     <sheet name="SurgeSites" sheetId="8" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="Baringo">SiteSetUp!$B$2:$B$28</definedName>
+    <definedName name="Baringo">SiteSetUp!$B$2:$B$29</definedName>
     <definedName name="County">SiteSetUp!$A$2:$A$6</definedName>
     <definedName name="dd" localSheetId="1">'Data Triangulation'!#REF!</definedName>
     <definedName name="dd" localSheetId="0">Instructions!#REF!</definedName>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1930" uniqueCount="787">
   <si>
     <t>F</t>
   </si>
@@ -3005,6 +3005,9 @@
   </si>
   <si>
     <t>Cause of Varience Confirmed to be Patients coming express for Pharmacy Refill</t>
+  </si>
+  <si>
+    <t>Mogotio Sub County Hospital (Baringo)_20005</t>
   </si>
 </sst>
 </file>
@@ -4146,6 +4149,87 @@
     <xf numFmtId="0" fontId="21" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -4244,87 +4328,6 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5771,16 +5774,16 @@
       <selection activeCell="F1" sqref="F1:AU2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="11.65"/>
+  <sheetFormatPr defaultColWidth="6.5703125" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="6.59765625" style="24"/>
-    <col min="2" max="2" width="2.73046875" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78.59765625" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.3984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="84.86328125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="4.3984375" style="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="24"/>
+    <col min="2" max="2" width="2.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="84.85546875" style="24" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="24" bestFit="1" customWidth="1"/>
     <col min="7" max="37" width="3" style="24" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="6.59765625" style="24"/>
+    <col min="38" max="16384" width="6.5703125" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:56" s="30" customFormat="1" ht="11.65" customHeight="1">
@@ -5924,7 +5927,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="4" spans="1:56" ht="209.25">
+    <row r="4" spans="1:56" ht="228">
       <c r="A4" s="29"/>
       <c r="B4" s="45">
         <v>2</v>
@@ -6059,40 +6062,40 @@
   <dimension ref="A1:BJ22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:F16"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="11.65"/>
+  <sheetFormatPr defaultColWidth="6.5703125" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="6.59765625" style="24"/>
-    <col min="2" max="2" width="2.73046875" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="101.73046875" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.86328125" style="23" customWidth="1"/>
-    <col min="5" max="5" width="6.265625" style="23" customWidth="1"/>
-    <col min="6" max="6" width="4.86328125" style="23" customWidth="1"/>
-    <col min="7" max="7" width="6.265625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="24"/>
+    <col min="2" max="2" width="2.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="101.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" style="23" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" style="23" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" style="23" customWidth="1"/>
     <col min="8" max="8" width="5" style="23" customWidth="1"/>
-    <col min="9" max="9" width="7.86328125" style="23" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" style="23" customWidth="1"/>
     <col min="10" max="10" width="10" style="23" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="24" customWidth="1"/>
-    <col min="12" max="12" width="4.3984375" style="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.42578125" style="24" bestFit="1" customWidth="1"/>
     <col min="13" max="43" width="3" style="24" bestFit="1" customWidth="1"/>
-    <col min="44" max="16384" width="6.59765625" style="24"/>
+    <col min="44" max="16384" width="6.5703125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="12" thickBot="1">
+    <row r="1" spans="1:62" ht="12.75" thickBot="1">
       <c r="A1" s="29"/>
     </row>
     <row r="2" spans="1:62" ht="38.25" customHeight="1" thickBot="1">
       <c r="A2" s="29"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="106"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="79"/>
       <c r="L2" s="35" t="s">
         <v>2</v>
       </c>
@@ -6192,16 +6195,16 @@
     </row>
     <row r="3" spans="1:62" s="30" customFormat="1" ht="18.399999999999999" customHeight="1" thickBot="1">
       <c r="A3" s="29"/>
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="92" t="s">
         <v>753</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="121"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="94"/>
       <c r="J3" s="31" t="s">
         <v>177</v>
       </c>
@@ -6260,20 +6263,20 @@
     </row>
     <row r="4" spans="1:62" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="29"/>
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="95" t="s">
         <v>759</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="D4" s="107" t="s">
+      <c r="D4" s="80" t="s">
         <v>755</v>
       </c>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="109"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="82"/>
       <c r="L4" s="35" t="s">
         <v>3</v>
       </c>
@@ -6335,14 +6338,14 @@
     </row>
     <row r="5" spans="1:62" ht="14.65" customHeight="1" thickBot="1">
       <c r="A5" s="29"/>
-      <c r="B5" s="122"/>
+      <c r="B5" s="95"/>
       <c r="C5" s="25"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="112"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="85"/>
       <c r="M5" s="48" t="s">
         <v>760</v>
       </c>
@@ -6351,20 +6354,20 @@
     </row>
     <row r="6" spans="1:62" ht="14.25" customHeight="1">
       <c r="A6" s="29"/>
-      <c r="B6" s="122"/>
+      <c r="B6" s="95"/>
       <c r="C6" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="D6" s="123" t="s">
+      <c r="D6" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="125" t="s">
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="125"/>
-      <c r="I6" s="126"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="99"/>
       <c r="M6" s="48" t="s">
         <v>761</v>
       </c>
@@ -6373,14 +6376,14 @@
     </row>
     <row r="7" spans="1:62" ht="17.25" customHeight="1" thickBot="1">
       <c r="A7" s="29"/>
-      <c r="B7" s="122"/>
+      <c r="B7" s="95"/>
       <c r="C7" s="26"/>
-      <c r="D7" s="127" t="str">
+      <c r="D7" s="100" t="str">
         <f>IF(ISERROR((RIGHT(C7,LEN(C7)- FIND("_",C7)))),"",(RIGHT(C7,LEN(C7)- FIND("_",C7))))</f>
         <v/>
       </c>
-      <c r="E7" s="128"/>
-      <c r="F7" s="129"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="102"/>
       <c r="G7" s="27" t="s">
         <v>2</v>
       </c>
@@ -6407,13 +6410,13 @@
       <c r="D8" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="113" t="s">
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="86" t="s">
         <v>751</v>
       </c>
-      <c r="H8" s="114"/>
-      <c r="I8" s="115"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="88"/>
       <c r="J8" s="28"/>
       <c r="K8" s="24"/>
       <c r="L8" s="29"/>
@@ -6475,11 +6478,11 @@
       <c r="B9" s="68"/>
       <c r="C9" s="70"/>
       <c r="D9" s="66"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="118"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="91"/>
       <c r="J9" s="28"/>
       <c r="K9" s="24"/>
       <c r="L9" s="29"/>
@@ -6544,15 +6547,15 @@
       <c r="C10" s="60" t="s">
         <v>758</v>
       </c>
-      <c r="D10" s="98"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="80">
+      <c r="D10" s="125"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="107">
         <f>IF(D10&lt;&gt;D11,"Not Concordant, Please indicate the corrective action plan taken",0)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="80"/>
-      <c r="I10" s="81"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="108"/>
       <c r="J10" s="32">
         <v>1</v>
       </c>
@@ -6565,12 +6568,12 @@
       <c r="C11" s="61" t="s">
         <v>752</v>
       </c>
-      <c r="D11" s="86"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="83"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="110"/>
       <c r="J11" s="32">
         <v>2</v>
       </c>
@@ -6583,12 +6586,12 @@
       <c r="C12" s="61" t="s">
         <v>779</v>
       </c>
-      <c r="D12" s="86"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="83"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="110"/>
       <c r="J12" s="32"/>
     </row>
     <row r="13" spans="1:62" ht="16.899999999999999" customHeight="1">
@@ -6599,12 +6602,12 @@
       <c r="C13" s="61" t="s">
         <v>766</v>
       </c>
-      <c r="D13" s="86"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="83"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="110"/>
       <c r="J13" s="32"/>
     </row>
     <row r="14" spans="1:62" ht="16.899999999999999" customHeight="1">
@@ -6615,12 +6618,12 @@
       <c r="C14" s="61" t="s">
         <v>780</v>
       </c>
-      <c r="D14" s="95"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="83"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="110"/>
       <c r="J14" s="32"/>
     </row>
     <row r="15" spans="1:62" ht="16.899999999999999" customHeight="1">
@@ -6631,15 +6634,15 @@
       <c r="C15" s="62" t="s">
         <v>781</v>
       </c>
-      <c r="D15" s="92">
+      <c r="D15" s="119">
         <f>D10-D11</f>
         <v>0</v>
       </c>
-      <c r="E15" s="93"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="83"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="110"/>
       <c r="J15" s="32"/>
     </row>
     <row r="16" spans="1:62" ht="14.65" customHeight="1">
@@ -6650,12 +6653,12 @@
       <c r="C16" s="62" t="s">
         <v>764</v>
       </c>
-      <c r="D16" s="89"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="83"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="110"/>
       <c r="J16" s="32"/>
     </row>
     <row r="17" spans="1:62" ht="14.65" customHeight="1">
@@ -6666,12 +6669,12 @@
       <c r="C17" s="64" t="s">
         <v>756</v>
       </c>
-      <c r="D17" s="101"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="83"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="110"/>
       <c r="J17" s="32"/>
       <c r="BJ17" s="34"/>
     </row>
@@ -6683,21 +6686,31 @@
       <c r="C18" s="63" t="s">
         <v>784</v>
       </c>
-      <c r="D18" s="77"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="85"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="112"/>
       <c r="J18" s="32"/>
       <c r="BJ18" s="34"/>
     </row>
-    <row r="22" spans="1:62" ht="14.25">
+    <row r="22" spans="1:62" ht="15">
       <c r="E22" s="38"/>
     </row>
   </sheetData>
   <sheetProtection password="CC71" sheet="1" selectLockedCells="1"/>
   <mergeCells count="21">
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G10:I18"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D17:F17"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="D4:I5"/>
     <mergeCell ref="C8:C9"/>
@@ -6709,16 +6722,6 @@
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="D8:F9"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G10:I18"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D17:F17"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="C17 G10">
@@ -6828,18 +6831,18 @@
       <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.265625" customWidth="1"/>
-    <col min="2" max="2" width="18.73046875" customWidth="1"/>
-    <col min="3" max="3" width="12.265625" customWidth="1"/>
-    <col min="4" max="4" width="20.86328125" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
-    <col min="6" max="6" width="15.265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="77.1328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.73046875" customWidth="1"/>
-    <col min="9" max="9" width="13.3984375" customWidth="1"/>
-    <col min="10" max="10" width="8.73046875" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="77.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -12132,17 +12135,17 @@
   <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.73046875" customWidth="1"/>
-    <col min="5" max="5" width="40.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.265625" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.7109375" customWidth="1"/>
+    <col min="5" max="5" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -12628,6 +12631,9 @@
       </c>
     </row>
     <row r="29" spans="2:6">
+      <c r="B29" t="s">
+        <v>786</v>
+      </c>
       <c r="C29" t="s">
         <v>494</v>
       </c>
@@ -13290,7 +13296,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KdzK3OOiUSVXXFHQQHhBmm5Ji0+SgXv9hgOq1LTYP5C6cDWKSVLfUvLI2PIVAYxw5mp4G51BW3B9icLOuUZnRQ==" saltValue="v598mVuoZjS1cGJ5FrDu2Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState ref="A2:A6">
     <sortCondition ref="A2"/>
   </sortState>
@@ -13302,16 +13307,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D328"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A76" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B330" sqref="B330"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.3984375" customWidth="1"/>
-    <col min="2" max="2" width="40.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1328125" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -17925,15 +17930,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EA9366B03F6EC145B189534E5AC3D6E6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ffc27aaa6afa60559960f746ac0a40ab">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="dac3fa0a-9923-49c3-b4ba-df6390fa58ea" xmlns:ns4="1ed6e237-7a44-4d6d-bfbc-e270d277b5ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6816e770e34b85fcdcbb3032b3d95e9" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -18167,33 +18163,34 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45088050-6D1C-4374-A6E1-B9B58326C08D}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1ed6e237-7a44-4d6d-bfbc-e270d277b5ad"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="1ed6e237-7a44-4d6d-bfbc-e270d277b5ad"/>
     <ds:schemaRef ds:uri="dac3fa0a-9923-49c3-b4ba-df6390fa58ea"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F970A073-BA64-4372-95DC-98C3FFA83DDB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E813427-ED26-482C-AA95-5E8CE21F89AA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18211,4 +18208,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F970A073-BA64-4372-95DC-98C3FFA83DDB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>